--- a/OfferCruzMailBot/plantillas/empresa.xlsx
+++ b/OfferCruzMailBot/plantillas/empresa.xlsx
@@ -214,12 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,10 +226,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -570,7 +569,7 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -644,114 +643,51 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>7</v>
-      </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4"/>
-    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B28">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C10">
+  <dataValidations count="6">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C5">
       <formula1>3</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C14">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14">
       <formula1>1990</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
@@ -760,6 +696,14 @@
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
       <formula1>1960</formula1>
     </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>3</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C8 C7 C6">
+      <formula1>3</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
